--- a/DATA_goal/Junction_Flooding_278.xlsx
+++ b/DATA_goal/Junction_Flooding_278.xlsx
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41710.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.72</v>
+        <v>3.07</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.09</v>
+        <v>3.31</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>163.16</v>
+        <v>16.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.03</v>
+        <v>3.1</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41710.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.5</v>
+        <v>3.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.45</v>
+        <v>3.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.31</v>
+        <v>5.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.75</v>
+        <v>1.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.03</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>208.99</v>
+        <v>20.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.73</v>
+        <v>3.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.32</v>
+        <v>2.63</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.45</v>
+        <v>2.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.85</v>
+        <v>4.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41710.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.98</v>
+        <v>2.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.35</v>
+        <v>3.34</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.86</v>
+        <v>11.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.19</v>
+        <v>2.22</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.67</v>
+        <v>3.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41710.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.05</v>
+        <v>1.9</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.63</v>
+        <v>4.16</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.77</v>
+        <v>3.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>56.56</v>
+        <v>5.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>220.43</v>
+        <v>22.04</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.8</v>
+        <v>4.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.01</v>
+        <v>2.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.75</v>
+        <v>2.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.42</v>
+        <v>1.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.38</v>
+        <v>5.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41710.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>48.11</v>
+        <v>4.81</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>39.25</v>
+        <v>3.92</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>67.29000000000001</v>
+        <v>6.73</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.76</v>
+        <v>2.68</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>19.28</v>
+        <v>1.93</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24.62</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>255.93</v>
+        <v>25.59</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>48.37</v>
+        <v>4.84</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.96</v>
+        <v>1.6</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>32.52</v>
+        <v>3.25</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>32.8</v>
+        <v>3.28</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>61.23</v>
+        <v>6.12</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41710.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.35</v>
+        <v>0.84</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>24.69</v>
+        <v>2.47</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>38.02</v>
+        <v>3.8</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>127.74</v>
+        <v>12.77</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>24.93</v>
+        <v>2.49</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.45</v>
+        <v>0.64</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>34.78</v>
+        <v>3.48</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41710.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>27.82</v>
+        <v>2.78</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>22.62</v>
+        <v>2.26</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>39.32</v>
+        <v>3.93</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>144.89</v>
+        <v>14.49</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>27.96</v>
+        <v>2.8</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>35.7</v>
+        <v>3.57</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41710.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>23.79</v>
+        <v>2.38</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>75.09</v>
+        <v>7.51</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>21.84</v>
+        <v>2.18</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41710.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>39.94</v>
+        <v>3.99</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>32.73</v>
+        <v>3.27</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>53.21</v>
+        <v>5.32</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>22.22</v>
+        <v>2.22</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>20.46</v>
+        <v>2.05</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>211.27</v>
+        <v>21.13</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>40.08</v>
+        <v>4.01</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>27.02</v>
+        <v>2.7</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>26.28</v>
+        <v>2.63</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>48.21</v>
+        <v>4.82</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_278.xlsx
+++ b/DATA_goal/Junction_Flooding_278.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,30 +444,30 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41710.34027777778</v>
+        <v>44959.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.07</v>
+        <v>2.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="L2" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M2" s="4" t="n">
         <v>1.21</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1.28</v>
-      </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.32</v>
+        <v>15.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41710.34722222222</v>
+        <v>44959.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>1.41</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.88</v>
+        <v>5.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41710.35416666666</v>
+        <v>44959.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.01</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.2</v>
+        <v>0.09</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.34</v>
+        <v>1.04</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.02</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.29</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.22</v>
+        <v>0.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.03</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.46</v>
+        <v>0.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.04</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.03</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41710.36111111111</v>
+        <v>44959.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>1.9</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q5" s="4" t="n">
+      <c r="AA5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>1.27</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.74</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.14</v>
+        <v>3.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41710.36805555555</v>
+        <v>44959.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.2</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.64</v>
+        <v>6.35</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.72</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.81</v>
+        <v>18.73</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.92</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.73</v>
+        <v>6.99</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.73</v>
+        <v>27.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.68</v>
+        <v>10.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.19</v>
+        <v>4.5</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.76</v>
+        <v>6.9</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.93</v>
+        <v>7.44</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.05</v>
+        <v>7.81</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.73</v>
+        <v>6.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.46</v>
+        <v>9.58</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.46</v>
+        <v>5.81</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>25.59</v>
+        <v>95.95</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.84</v>
+        <v>19.01</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.6</v>
+        <v>6.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.25</v>
+        <v>12.65</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.71</v>
+        <v>6.59</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.25</v>
+        <v>1.13</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.28</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.41</v>
+        <v>5.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.25</v>
+        <v>4.95</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.47</v>
+        <v>5.82</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.02</v>
+        <v>7.89</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.12</v>
+        <v>25.72</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.9</v>
+        <v>3.45</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41710.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41710.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41710.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41710.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41710.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>24.11</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>42.87</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>154.06</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>39.09</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.24</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_278.xlsx
+++ b/DATA_goal/Junction_Flooding_278.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44959.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44959.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.2</v>
+        <v>21.97</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.8</v>
+        <v>48.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.85</v>
+        <v>38.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.44</v>
+        <v>64.39</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.59</v>
+        <v>255.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.83</v>
+        <v>48.33</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.8</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.21</v>
+        <v>32.1</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.06</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.89</v>
+        <v>58.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>44959.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,85 +881,85 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="V4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44959.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.02</v>
+        <v>30.2</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.44</v>
+        <v>24.39</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.83</v>
+        <v>38.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.9</v>
+        <v>159.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.9</v>
+        <v>18.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.45</v>
+        <v>34.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_278.xlsx
+++ b/DATA_goal/Junction_Flooding_278.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44959.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44959.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.97</v>
+        <v>21.965</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.04</v>
+        <v>16.035</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.95</v>
+        <v>1.947</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>48.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.48</v>
+        <v>38.482</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.16</v>
+        <v>17.163</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>64.39</v>
+        <v>64.38500000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.66</v>
+        <v>11.664</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.15</v>
+        <v>17.147</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.45</v>
+        <v>20.445</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.55</v>
+        <v>5.555</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.43</v>
+        <v>24.435</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.83</v>
+        <v>14.834</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.438</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.184</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>255.92</v>
+        <v>255.921</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>48.33</v>
+        <v>48.334</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>32.2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.8</v>
+        <v>16.796</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.88</v>
+        <v>2.876</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.1</v>
+        <v>32.102</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.63</v>
+        <v>12.627</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>14.87</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.06</v>
+        <v>20.057</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>58.93</v>
+        <v>58.929</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.871</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.96</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>44959.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.874</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,37 +881,37 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10.37</v>
+        <v>10.371</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.164</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.226</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.201</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.655</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.597</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.833</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.34</v>
@@ -920,46 +920,46 @@
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.79</v>
+        <v>1.793</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.163</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.384</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.53</v>
+        <v>4.528</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.46</v>
+        <v>10.455</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44959.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_278.xlsx
+++ b/DATA_goal/Junction_Flooding_278.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,25 +967,25 @@
         <v>44959.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.81</v>
+        <v>13.814</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.28</v>
+        <v>10.277</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.011</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.2</v>
+        <v>30.196</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.39</v>
+        <v>24.391</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.11</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.32</v>
+        <v>38.317</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16.87</v>
@@ -994,76 +994,180 @@
         <v>7.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.17</v>
+        <v>11.174</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.01</v>
+        <v>12.011</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.63</v>
+        <v>12.631</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.395</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.39</v>
+        <v>15.394</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.27</v>
+        <v>9.266999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.643</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>159.03</v>
+        <v>159.034</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.29</v>
+        <v>30.293</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.21</v>
+        <v>20.211</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.63</v>
+        <v>10.635</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.734</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.95</v>
+        <v>18.954</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.93</v>
+        <v>7.927</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.32</v>
+        <v>9.323</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.71</v>
+        <v>12.715</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.506</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.52</v>
+        <v>34.525</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.6</v>
+        <v>5.603</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.58</v>
+        <v>12.581</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44959.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_278.xlsx
+++ b/DATA_goal/Junction_Flooding_278.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,25 +967,25 @@
         <v>44959.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.814</v>
+        <v>13.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.277</v>
+        <v>10.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.011</v>
+        <v>1.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.196</v>
+        <v>30.2</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.391</v>
+        <v>24.39</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.11</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.317</v>
+        <v>38.32</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>16.87</v>
@@ -994,180 +994,76 @@
         <v>7.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.174</v>
+        <v>11.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.011</v>
+        <v>12.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.631</v>
+        <v>12.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.395</v>
+        <v>3.4</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.903</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.394</v>
+        <v>15.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.266999999999999</v>
+        <v>9.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.643</v>
+        <v>0.64</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>159.034</v>
+        <v>159.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.293</v>
+        <v>30.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.064</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.211</v>
+        <v>20.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.635</v>
+        <v>10.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.734</v>
+        <v>1.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.954</v>
+        <v>18.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.927</v>
+        <v>7.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.323</v>
+        <v>9.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.715</v>
+        <v>12.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.525</v>
+        <v>34.52</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.603</v>
+        <v>5.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.581</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44959.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>
